--- a/output/1Y_P46_1VAL-D.xlsx
+++ b/output/1Y_P46_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>548.3388</v>
       </c>
-      <c r="G2" s="1">
-        <v>548.3388</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1271</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2369</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1271</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E3" s="1">
+        <v>548.3388</v>
+      </c>
       <c r="F3" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G3" s="1">
-        <v>1070.8185</v>
-      </c>
       <c r="H3" s="1">
-        <v>20388.5983</v>
+        <v>10440.4806</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.6773</v>
+        <v>10440.4806</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2369</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20388.5983</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0221</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>20.979</v>
       </c>
+      <c r="E4" s="1">
+        <v>1070.8185</v>
+      </c>
       <c r="F4" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G4" s="1">
-        <v>1547.4856</v>
-      </c>
       <c r="H4" s="1">
-        <v>32296.4895</v>
+        <v>22348.3033</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>19.3863</v>
+        <v>22348.3033</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.6773</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32296.4895</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.06279999999999999</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E5" s="1">
+        <v>1547.4856</v>
+      </c>
       <c r="F5" s="1">
         <v>446.606</v>
       </c>
-      <c r="G5" s="1">
-        <v>1994.0917</v>
-      </c>
       <c r="H5" s="1">
-        <v>44418.5911</v>
+        <v>34470.3974</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>20.0593</v>
+        <v>34470.3974</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>19.3863</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44418.5911</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0502</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E6" s="1">
+        <v>1994.0917</v>
+      </c>
       <c r="F6" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G6" s="1">
-        <v>2424.1381</v>
-      </c>
       <c r="H6" s="1">
-        <v>56076.8605</v>
+        <v>46128.7241</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>20.6259</v>
+        <v>46128.7241</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>20.0593</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56076.8605</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0305</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>22.965</v>
       </c>
+      <c r="E7" s="1">
+        <v>2424.1381</v>
+      </c>
       <c r="F7" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G7" s="1">
-        <v>2859.5834</v>
-      </c>
       <c r="H7" s="1">
-        <v>65329.7561</v>
+        <v>55381.6176</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>20.9821</v>
+        <v>55381.6176</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.6259</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65329.7561</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0113</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E8" s="1">
+        <v>2859.5834</v>
+      </c>
       <c r="F8" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G8" s="1">
-        <v>3360.4148</v>
-      </c>
       <c r="H8" s="1">
-        <v>66748.9267</v>
+        <v>56800.7627</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.8308</v>
+        <v>56800.7627</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.9821</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66748.9267</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.1139</v>
+        <v>-0.1312</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E9" s="1">
+        <v>3360.4148</v>
+      </c>
       <c r="F9" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G9" s="1">
-        <v>3908.5372</v>
-      </c>
       <c r="H9" s="1">
-        <v>70937.9955</v>
+        <v>60989.8478</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>20.468</v>
+        <v>60989.8478</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.8308</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>70937.9955</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0757</v>
+        <v>-0.08699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E10" s="1">
+        <v>3908.5372</v>
+      </c>
       <c r="F10" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G10" s="1">
-        <v>4606.7296</v>
-      </c>
       <c r="H10" s="1">
-        <v>65638.5254</v>
+        <v>55690.4011</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.5366</v>
+        <v>55690.4011</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20.468</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
-        <v>7035.3669</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-2964.6331</v>
+        <v>6048.7466</v>
       </c>
       <c r="O10" s="1">
-        <v>7035.3669</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>72673.89230000001</v>
+        <v>-3951.2534</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1021</v>
+        <v>-0.2155</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E11" s="1">
+        <v>4606.7296</v>
+      </c>
       <c r="F11" s="1">
-        <v>784.1509</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5390.8804</v>
+        <v>763.2611000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>84430.35189999999</v>
+        <v>72149.2163</v>
       </c>
       <c r="I11" s="1">
-        <v>102345.1223</v>
+        <v>6048.7466</v>
       </c>
       <c r="J11" s="1">
-        <v>18.9849</v>
+        <v>78197.96279999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92016.24890000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.9743</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12345.1223</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>4690.2446</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89120.5965</v>
+        <v>-12016.2489</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.078</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E12" s="1">
+        <v>5369.9907</v>
+      </c>
       <c r="F12" s="1">
-        <v>762.3552</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6153.2356</v>
+        <v>742.0461</v>
       </c>
       <c r="H12" s="1">
-        <v>99124.9335</v>
+        <v>86507.3278</v>
       </c>
       <c r="I12" s="1">
-        <v>114690.2446</v>
+        <v>4032.4977</v>
       </c>
       <c r="J12" s="1">
-        <v>18.639</v>
+        <v>90539.8256</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104032.4977</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.3729</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12345.1223</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2345.1223</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101470.0558</v>
+        <v>-12016.2489</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0237</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E13" s="1">
+        <v>6112.0368</v>
+      </c>
       <c r="F13" s="1">
-        <v>811.0159</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6964.2515</v>
+        <v>789.4105</v>
       </c>
       <c r="H13" s="1">
-        <v>105458.9644</v>
+        <v>92553.9613</v>
       </c>
       <c r="I13" s="1">
-        <v>127035.3669</v>
+        <v>2016.2489</v>
       </c>
       <c r="J13" s="1">
-        <v>18.2411</v>
+        <v>94570.2102</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116048.7466</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.9869</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12345.1223</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>105458.9644</v>
+        <v>-12016.2489</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0539</v>
+        <v>-0.0594</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E14" s="1">
+        <v>6901.4473</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6964.2515</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6112.0368</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96601.6277</v>
       </c>
       <c r="I14" s="1">
-        <v>127035.3669</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.2411</v>
+        <v>96601.6277</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116048.7466</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.8151</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97480.7179</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97480.7179</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97480.7179</v>
+        <v>85552.012</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1557</v>
+        <v>-0.0762</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.2369</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.3388</v>
       </c>
       <c r="G2" s="1">
-        <v>548.3388</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1271</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2369</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1271</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>19.1395</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>548.3388</v>
       </c>
       <c r="F3" s="1">
         <v>502.0703</v>
       </c>
       <c r="G3" s="1">
-        <v>1050.4091</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10440.4806</v>
       </c>
       <c r="I3" s="1">
-        <v>19609.375</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.6683</v>
+        <v>10440.4806</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9609.375</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.5245</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9609.375</v>
       </c>
-      <c r="O3" s="1">
-        <v>390.625</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20390.625</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0222</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>20.979</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1050.4091</v>
       </c>
       <c r="F4" s="1">
         <v>387.0403</v>
       </c>
       <c r="G4" s="1">
-        <v>1437.4494</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21922.3538</v>
       </c>
       <c r="I4" s="1">
-        <v>27729.0925</v>
+        <v>390.625</v>
       </c>
       <c r="J4" s="1">
-        <v>19.2905</v>
+        <v>22312.9787</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17729.0925</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.8783</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8119.7175</v>
       </c>
-      <c r="O4" s="1">
-        <v>2270.9075</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32270.9075</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0619</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>22.3911</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1437.4494</v>
       </c>
       <c r="F5" s="1">
         <v>358.2777</v>
       </c>
       <c r="G5" s="1">
-        <v>1795.7271</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>32019.3289</v>
       </c>
       <c r="I5" s="1">
-        <v>35751.3238</v>
+        <v>2270.9075</v>
       </c>
       <c r="J5" s="1">
-        <v>19.9091</v>
+        <v>34290.2364</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>25751.3238</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9146</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8022.2313</v>
       </c>
-      <c r="O5" s="1">
-        <v>4248.6762</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44248.6762</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0468</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>23.2533</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>1795.7271</v>
       </c>
       <c r="F6" s="1">
         <v>365.7154</v>
       </c>
       <c r="G6" s="1">
-        <v>2161.4425</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41540.0155</v>
       </c>
       <c r="I6" s="1">
-        <v>44255.4136</v>
+        <v>4248.6762</v>
       </c>
       <c r="J6" s="1">
-        <v>20.4749</v>
+        <v>45788.6917</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34255.4136</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.0761</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8504.0897</v>
       </c>
-      <c r="O6" s="1">
-        <v>5744.5864</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55744.5864</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0276</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>22.965</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2161.4425</v>
       </c>
       <c r="F7" s="1">
         <v>464.8493</v>
       </c>
       <c r="G7" s="1">
-        <v>2626.2918</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49380.0983</v>
       </c>
       <c r="I7" s="1">
-        <v>54930.6788</v>
+        <v>5744.5864</v>
       </c>
       <c r="J7" s="1">
-        <v>20.9157</v>
+        <v>55124.6847</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44930.6788</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.7874</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10675.2653</v>
       </c>
-      <c r="O7" s="1">
-        <v>5069.3212</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65069.3212</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0103</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>19.9668</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>2626.2918</v>
       </c>
       <c r="F8" s="1">
         <v>754.7189</v>
       </c>
       <c r="G8" s="1">
-        <v>3381.0107</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>67158.0298</v>
+        <v>52166.8221</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>5069.3212</v>
       </c>
       <c r="J8" s="1">
-        <v>20.7039</v>
+        <v>57236.1432</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>22.8459</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-15069.3212</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67158.0298</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.1054</v>
+        <v>-0.1211</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.2441</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3381.0107</v>
       </c>
       <c r="F9" s="1">
         <v>548.1224</v>
       </c>
       <c r="G9" s="1">
-        <v>3929.1331</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71311.80130000001</v>
+        <v>61363.6537</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>20.3607</v>
+        <v>61363.6537</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.7039</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71311.80130000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.07580000000000001</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.3227</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>3929.1331</v>
       </c>
       <c r="F10" s="1">
         <v>698.1924</v>
       </c>
       <c r="G10" s="1">
-        <v>4627.3255</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>65931.9844</v>
+        <v>55983.8601</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.4497</v>
+        <v>55983.8601</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20.3607</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
-        <v>7072.4396</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-2927.5604</v>
+        <v>6085.8193</v>
       </c>
       <c r="O10" s="1">
-        <v>7072.4396</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>73004.424</v>
+        <v>-3914.1807</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1022</v>
+        <v>-0.2155</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.7433</v>
       </c>
       <c r="E11" s="1">
+        <v>4627.3255</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1021.7565</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>1084.4257</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5711.7512</v>
-      </c>
       <c r="H11" s="1">
-        <v>89455.734</v>
+        <v>72471.78350000001</v>
       </c>
       <c r="I11" s="1">
-        <v>107072.4396</v>
+        <v>6085.8193</v>
       </c>
       <c r="J11" s="1">
-        <v>18.746</v>
+        <v>78557.60279999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>96085.8193</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>20.7649</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-17072.4396</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89455.734</v>
+        <v>-16085.8193</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.1906</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.1934</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5649.082</v>
       </c>
       <c r="F12" s="1">
         <v>617.5355</v>
       </c>
       <c r="G12" s="1">
-        <v>6329.2868</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101961.012</v>
+        <v>91003.32150000001</v>
       </c>
       <c r="I12" s="1">
-        <v>117072.4396</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.4969</v>
+        <v>91003.32150000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106085.8193</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.7793</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101961.012</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0252</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6266.6175</v>
       </c>
       <c r="F13" s="1">
         <v>656.9525</v>
       </c>
       <c r="G13" s="1">
-        <v>6986.2393</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105791.9228</v>
+        <v>94894.76270000001</v>
       </c>
       <c r="I13" s="1">
-        <v>127072.4396</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.189</v>
+        <v>94894.76270000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116085.8193</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5245</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>105791.9228</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0551</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>14.0702</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6923.5701</v>
       </c>
       <c r="F14" s="1">
-        <v>-6986.2393</v>
+        <v>-6923.5701</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96911.28720000001</v>
       </c>
       <c r="I14" s="1">
-        <v>127072.4396</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.189</v>
+        <v>96911.28720000001</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116085.8193</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.7668</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97788.4871</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97788.4871</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97788.4871</v>
+        <v>96911.28720000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1555</v>
+        <v>-0.0761</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.2369</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.3388</v>
       </c>
       <c r="G2" s="1">
-        <v>548.3388</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1271</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2369</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1271</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>19.1395</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>548.3388</v>
       </c>
       <c r="F3" s="1">
         <v>504.6963</v>
       </c>
       <c r="G3" s="1">
-        <v>1053.0352</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10440.4806</v>
       </c>
       <c r="I3" s="1">
-        <v>19659.6358</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.6695</v>
+        <v>10440.4806</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9659.6358</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6162</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9659.6358</v>
       </c>
-      <c r="O3" s="1">
-        <v>340.3642</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20390.3642</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0222</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>20.979</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1053.0352</v>
       </c>
       <c r="F4" s="1">
         <v>391.6135</v>
       </c>
       <c r="G4" s="1">
-        <v>1444.6486</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21977.1596</v>
       </c>
       <c r="I4" s="1">
-        <v>27875.2945</v>
+        <v>340.3642</v>
       </c>
       <c r="J4" s="1">
-        <v>19.2956</v>
+        <v>22317.5239</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17875.2945</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.975</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8215.6587</v>
       </c>
-      <c r="O4" s="1">
-        <v>2124.7055</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32274.9555</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.062</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>22.3911</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1444.6486</v>
       </c>
       <c r="F5" s="1">
         <v>364.5914</v>
       </c>
       <c r="G5" s="1">
-        <v>1809.24</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>32179.6924</v>
       </c>
       <c r="I5" s="1">
-        <v>36038.896</v>
+        <v>2124.7055</v>
       </c>
       <c r="J5" s="1">
-        <v>19.9194</v>
+        <v>34304.3978</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26038.896</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0244</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8163.6015</v>
       </c>
-      <c r="O5" s="1">
-        <v>3961.104</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44262.1053</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.047</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>23.2533</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>1809.24</v>
       </c>
       <c r="F6" s="1">
         <v>373.9253</v>
       </c>
       <c r="G6" s="1">
-        <v>2183.1652</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41852.6054</v>
       </c>
       <c r="I6" s="1">
-        <v>44733.8922</v>
+        <v>3961.104</v>
       </c>
       <c r="J6" s="1">
-        <v>20.4904</v>
+        <v>45813.7095</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34733.8922</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.1981</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8694.9962</v>
       </c>
-      <c r="O6" s="1">
-        <v>5266.1078</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55768.6141</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0278</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>22.965</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2183.1652</v>
       </c>
       <c r="F7" s="1">
         <v>476.1749</v>
       </c>
       <c r="G7" s="1">
-        <v>2659.3401</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>49876.3745</v>
       </c>
       <c r="I7" s="1">
-        <v>55669.2489</v>
+        <v>5266.1078</v>
       </c>
       <c r="J7" s="1">
-        <v>20.9335</v>
+        <v>55142.4823</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45669.2489</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>20.9188</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10935.3567</v>
       </c>
-      <c r="O7" s="1">
-        <v>4330.7511</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65085.7698</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0104</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>19.9668</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>2659.3401</v>
       </c>
       <c r="F8" s="1">
         <v>717.729</v>
       </c>
       <c r="G8" s="1">
-        <v>3377.0691</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67079.73699999999</v>
+        <v>52823.2709</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>4330.7511</v>
       </c>
       <c r="J8" s="1">
-        <v>20.728</v>
+        <v>57154.022</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>22.562</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-14330.7511</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67079.73699999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.1066</v>
+        <v>-0.1226</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.2441</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3377.0691</v>
       </c>
       <c r="F9" s="1">
         <v>548.1224</v>
       </c>
       <c r="G9" s="1">
-        <v>3925.1915</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71240.26360000001</v>
+        <v>61292.116</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>20.3812</v>
+        <v>61292.116</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.728</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71240.26360000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.07580000000000001</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.3227</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>3925.1915</v>
       </c>
       <c r="F10" s="1">
         <v>698.1924</v>
       </c>
       <c r="G10" s="1">
-        <v>4623.3839</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>65875.8232</v>
+        <v>55927.6989</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.4663</v>
+        <v>55927.6989</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20.3812</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
-        <v>7065.3447</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-2934.6553</v>
+        <v>6078.7244</v>
       </c>
       <c r="O10" s="1">
-        <v>7065.3447</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>72941.16800000001</v>
+        <v>-3921.2756</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1022</v>
+        <v>-0.2155</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.7433</v>
       </c>
       <c r="E11" s="1">
+        <v>4623.3839</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1021.3059</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>1083.9751</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5707.359</v>
-      </c>
       <c r="H11" s="1">
-        <v>89386.94409999999</v>
+        <v>72410.0517</v>
       </c>
       <c r="I11" s="1">
-        <v>107065.3447</v>
+        <v>6078.7244</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7592</v>
+        <v>78488.7761</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>96078.72440000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>20.781</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-17065.3447</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89386.94409999999</v>
+        <v>-16078.7244</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.1934</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5644.6898</v>
       </c>
       <c r="F12" s="1">
         <v>617.5355</v>
       </c>
       <c r="G12" s="1">
-        <v>6324.8945</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101890.2557</v>
+        <v>90932.5652</v>
       </c>
       <c r="I12" s="1">
-        <v>117065.3447</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.5087</v>
+        <v>90932.5652</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106078.7244</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.7927</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101890.2557</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0252</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6262.2253</v>
       </c>
       <c r="F13" s="1">
         <v>656.9525</v>
       </c>
       <c r="G13" s="1">
-        <v>6981.847</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105725.4116</v>
+        <v>94828.25139999999</v>
       </c>
       <c r="I13" s="1">
-        <v>127065.3447</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.1994</v>
+        <v>94828.25139999999</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116078.7244</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5363</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>105725.4116</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0551</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>14.0702</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6919.1778</v>
       </c>
       <c r="F14" s="1">
-        <v>-6981.847</v>
+        <v>-6919.1778</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96849.8078</v>
       </c>
       <c r="I14" s="1">
-        <v>127065.3447</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.1994</v>
+        <v>96849.8078</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116078.7244</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.7764</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97727.0076</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97727.0076</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97727.0076</v>
+        <v>96849.8078</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1555</v>
+        <v>-0.0761</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.2369</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.3388</v>
       </c>
       <c r="G2" s="1">
-        <v>548.3388</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1271</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2369</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1271</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>19.1395</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>548.3388</v>
       </c>
       <c r="F3" s="1">
         <v>507.3224</v>
       </c>
       <c r="G3" s="1">
-        <v>1055.6612</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10440.4806</v>
       </c>
       <c r="I3" s="1">
-        <v>19709.8965</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.6707</v>
+        <v>10440.4806</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9709.896500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7078</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9709.896500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>290.1035</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20390.1035</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0222</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>20.979</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1055.6612</v>
       </c>
       <c r="F4" s="1">
         <v>396.2106</v>
       </c>
       <c r="G4" s="1">
-        <v>1451.8718</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>22031.9655</v>
       </c>
       <c r="I4" s="1">
-        <v>28021.9991</v>
+        <v>290.1035</v>
       </c>
       <c r="J4" s="1">
-        <v>19.3006</v>
+        <v>22322.069</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18021.9991</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0718</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8312.1026</v>
       </c>
-      <c r="O4" s="1">
-        <v>1978.0009</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32279.0009</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0622</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>22.3911</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1451.8718</v>
       </c>
       <c r="F5" s="1">
         <v>370.9712</v>
       </c>
       <c r="G5" s="1">
-        <v>1822.843</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32340.5895</v>
       </c>
       <c r="I5" s="1">
-        <v>36328.4523</v>
+        <v>1978.0009</v>
       </c>
       <c r="J5" s="1">
-        <v>19.9296</v>
+        <v>34318.5904</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26328.4523</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1341</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8306.4532</v>
       </c>
-      <c r="O5" s="1">
-        <v>3671.5477</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44275.5577</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0472</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>23.2533</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>1822.843</v>
       </c>
       <c r="F6" s="1">
         <v>382.2628</v>
       </c>
       <c r="G6" s="1">
-        <v>2205.1058</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42167.2802</v>
       </c>
       <c r="I6" s="1">
-        <v>45217.3231</v>
+        <v>3671.5477</v>
       </c>
       <c r="J6" s="1">
-        <v>20.5057</v>
+        <v>45838.8279</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35217.3231</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.32</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8888.870800000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>4782.6769</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55792.727</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.028</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>22.965</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2205.1058</v>
       </c>
       <c r="F7" s="1">
         <v>487.7254</v>
       </c>
       <c r="G7" s="1">
-        <v>2692.8311</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>50377.6258</v>
       </c>
       <c r="I7" s="1">
-        <v>56417.936</v>
+        <v>4782.6769</v>
       </c>
       <c r="J7" s="1">
-        <v>20.9512</v>
+        <v>55160.3027</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46417.936</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.0502</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11200.6129</v>
       </c>
-      <c r="O7" s="1">
-        <v>3582.064</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65102.2146</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0105</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>19.9668</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>2692.8311</v>
       </c>
       <c r="F8" s="1">
         <v>680.2324</v>
       </c>
       <c r="G8" s="1">
-        <v>3373.0635</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67000.1724</v>
+        <v>53488.5125</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>3582.064</v>
       </c>
       <c r="J8" s="1">
-        <v>20.7526</v>
+        <v>57070.5765</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>22.2814</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-13582.064</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67000.1724</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.1079</v>
+        <v>-0.1242</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.2441</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3373.0635</v>
       </c>
       <c r="F9" s="1">
         <v>548.1224</v>
       </c>
       <c r="G9" s="1">
-        <v>3921.1859</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71167.5638</v>
+        <v>61219.4162</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>20.402</v>
+        <v>61219.4162</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.7526</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71167.5638</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0757</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.3227</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>3921.1859</v>
       </c>
       <c r="F10" s="1">
         <v>698.1924</v>
       </c>
       <c r="G10" s="1">
-        <v>4619.3783</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>65818.7497</v>
+        <v>55870.6254</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.4831</v>
+        <v>55870.6254</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20.402</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
-        <v>7058.1346</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-2941.8654</v>
+        <v>6071.5143</v>
       </c>
       <c r="O10" s="1">
-        <v>7058.1346</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>72876.8844</v>
+        <v>-3928.4857</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1021</v>
+        <v>-0.2155</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.7433</v>
       </c>
       <c r="E11" s="1">
+        <v>4619.3783</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1020.8479</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>1083.5171</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5702.8954</v>
-      </c>
       <c r="H11" s="1">
-        <v>89317.0367</v>
+        <v>72347.3171</v>
       </c>
       <c r="I11" s="1">
-        <v>107058.1346</v>
+        <v>6071.5143</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7726</v>
+        <v>78418.8314</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>96071.5143</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>20.7975</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-17058.1346</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89317.0367</v>
+        <v>-16071.5143</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.1934</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5640.2262</v>
       </c>
       <c r="F12" s="1">
         <v>617.5355</v>
       </c>
       <c r="G12" s="1">
-        <v>6320.4309</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101818.35</v>
+        <v>90860.6594</v>
       </c>
       <c r="I12" s="1">
-        <v>117058.1346</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.5206</v>
+        <v>90860.6594</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106071.5143</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.8063</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101818.35</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0252</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6257.7617</v>
       </c>
       <c r="F13" s="1">
         <v>656.9525</v>
       </c>
       <c r="G13" s="1">
-        <v>6977.3835</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>105657.8199</v>
+        <v>94760.65979999999</v>
       </c>
       <c r="I13" s="1">
-        <v>127058.1346</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.21</v>
+        <v>94760.65979999999</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116071.5143</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5484</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>105657.8199</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0551</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>14.0702</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6914.7142</v>
       </c>
       <c r="F14" s="1">
-        <v>-6977.3835</v>
+        <v>-6914.7142</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96787.3296</v>
       </c>
       <c r="I14" s="1">
-        <v>127058.1346</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.21</v>
+        <v>96787.3296</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116071.5143</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.7862</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97664.5295</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97664.5295</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97664.5295</v>
+        <v>96787.3296</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1556</v>
+        <v>-0.0761</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.2369</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.3388</v>
       </c>
       <c r="G2" s="1">
-        <v>548.3388</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1271</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2369</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1271</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>19.1395</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>548.3388</v>
       </c>
       <c r="F3" s="1">
         <v>509.9484</v>
       </c>
       <c r="G3" s="1">
-        <v>1058.2872</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10440.4806</v>
       </c>
       <c r="I3" s="1">
-        <v>19760.1573</v>
+        <v>-0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.6718</v>
+        <v>10440.4806</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9760.157300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7995</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9760.157300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>239.8427</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20389.8427</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0221</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>20.979</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1058.2872</v>
       </c>
       <c r="F4" s="1">
         <v>400.8317</v>
       </c>
       <c r="G4" s="1">
-        <v>1459.1189</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>22086.7714</v>
       </c>
       <c r="I4" s="1">
-        <v>28169.2063</v>
+        <v>239.8427</v>
       </c>
       <c r="J4" s="1">
-        <v>19.3056</v>
+        <v>22326.6141</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18169.2063</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.1685</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8409.049000000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1830.7937</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32283.0437</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0623</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>22.3911</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1459.1189</v>
       </c>
       <c r="F5" s="1">
         <v>377.4175</v>
       </c>
       <c r="G5" s="1">
-        <v>1836.5365</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32502.0203</v>
       </c>
       <c r="I5" s="1">
-        <v>36620.0002</v>
+        <v>1830.7937</v>
       </c>
       <c r="J5" s="1">
-        <v>19.9397</v>
+        <v>34332.814</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26620.0002</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.2439</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8450.793900000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>3379.9998</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44289.0335</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0474</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>23.2533</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>1836.5365</v>
       </c>
       <c r="F6" s="1">
         <v>390.7292</v>
       </c>
       <c r="G6" s="1">
-        <v>2227.2657</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42484.0474</v>
       </c>
       <c r="I6" s="1">
-        <v>45705.744</v>
+        <v>3379.9998</v>
       </c>
       <c r="J6" s="1">
-        <v>20.521</v>
+        <v>45864.0472</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35705.744</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.4419</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9085.7438</v>
       </c>
-      <c r="O6" s="1">
-        <v>4294.256</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55816.9253</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0281</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>22.965</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2227.2657</v>
       </c>
       <c r="F7" s="1">
         <v>499.5041</v>
       </c>
       <c r="G7" s="1">
-        <v>2726.7698</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>50883.8895</v>
       </c>
       <c r="I7" s="1">
-        <v>57176.8548</v>
+        <v>4294.256</v>
       </c>
       <c r="J7" s="1">
-        <v>20.9687</v>
+        <v>55178.1455</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47176.8548</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.1815</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11471.1108</v>
       </c>
-      <c r="O7" s="1">
-        <v>2823.1452</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65118.6545</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0106</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>19.9668</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>2726.7698</v>
       </c>
       <c r="F8" s="1">
         <v>642.2234</v>
       </c>
       <c r="G8" s="1">
-        <v>3368.9931</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>66919.32090000001</v>
+        <v>54162.6458</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>2823.1452</v>
       </c>
       <c r="J8" s="1">
-        <v>20.7777</v>
+        <v>56985.7911</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>22.0041</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12823.1452</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66919.32090000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.1092</v>
+        <v>-0.1257</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.2441</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3368.9931</v>
       </c>
       <c r="F9" s="1">
         <v>548.1224</v>
       </c>
       <c r="G9" s="1">
-        <v>3917.1155</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71093.6882</v>
+        <v>61145.5405</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>20.4232</v>
+        <v>61145.5405</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.7777</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>71093.6882</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0757</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.3227</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>3917.1155</v>
       </c>
       <c r="F10" s="1">
         <v>698.1924</v>
       </c>
       <c r="G10" s="1">
-        <v>4615.3079</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>65760.7531</v>
+        <v>55812.6288</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.5003</v>
+        <v>55812.6288</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20.4232</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
-        <v>7050.8079</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-2949.1921</v>
+        <v>6064.1876</v>
       </c>
       <c r="O10" s="1">
-        <v>7050.8079</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>72811.561</v>
+        <v>-3935.8124</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.1021</v>
+        <v>-0.2155</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.7433</v>
       </c>
       <c r="E11" s="1">
+        <v>4615.3079</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1020.3825</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>1083.0517</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5698.3596</v>
-      </c>
       <c r="H11" s="1">
-        <v>89245.9987</v>
+        <v>72283.5678</v>
       </c>
       <c r="I11" s="1">
-        <v>107050.8079</v>
+        <v>6064.1876</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7862</v>
+        <v>78347.75539999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>96064.1876</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>20.8143</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-17050.8079</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89245.9987</v>
+        <v>-16064.1876</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.1934</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5635.6904</v>
       </c>
       <c r="F12" s="1">
         <v>617.5355</v>
       </c>
       <c r="G12" s="1">
-        <v>6315.8951</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101745.2813</v>
+        <v>90787.5907</v>
       </c>
       <c r="I12" s="1">
-        <v>117050.8079</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>18.5327</v>
+        <v>90787.5907</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106064.1876</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.8201</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101745.2813</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0252</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.2218</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6253.2259</v>
       </c>
       <c r="F13" s="1">
         <v>656.9525</v>
       </c>
       <c r="G13" s="1">
-        <v>6972.8477</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>105589.1351</v>
+        <v>94691.9749</v>
       </c>
       <c r="I13" s="1">
-        <v>127050.8079</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.2208</v>
+        <v>94691.9749</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>116064.1876</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.5607</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>105589.1351</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0551</v>
+        <v>-0.0605</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>14.0702</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6910.1785</v>
       </c>
       <c r="F14" s="1">
-        <v>-6972.8477</v>
+        <v>-6910.1785</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>96723.8409</v>
       </c>
       <c r="I14" s="1">
-        <v>127050.8079</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.2208</v>
+        <v>96723.8409</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>116064.1876</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.7961</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>97601.0408</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>97601.0408</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>97601.0408</v>
+        <v>96723.8409</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1556</v>
+        <v>-0.0761</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.0323</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.2411</v>
+        <v>16.8151</v>
       </c>
       <c r="D3" s="1">
-        <v>18.189</v>
+        <v>16.7668</v>
       </c>
       <c r="E3" s="1">
-        <v>18.1994</v>
+        <v>16.7764</v>
       </c>
       <c r="F3" s="1">
-        <v>18.21</v>
+        <v>16.7862</v>
       </c>
       <c r="G3" s="1">
-        <v>18.2208</v>
+        <v>16.7961</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.2006</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2455</v>
+        <v>-0.1254</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2428</v>
+        <v>-0.1236</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2437</v>
+        <v>-0.1245</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2446</v>
+        <v>-0.1254</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2454</v>
+        <v>-0.1263</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.3243</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2567</v>
+        <v>0.3643</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2523</v>
+        <v>0.3597</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2528</v>
+        <v>0.3603</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2534</v>
+        <v>0.3609</v>
       </c>
       <c r="G5" s="3">
-        <v>0.254</v>
+        <v>0.3615</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.6813</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.0353</v>
+        <v>-0.4</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.0433</v>
+        <v>-0.4002</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.0443</v>
+        <v>-0.4019</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.0453</v>
+        <v>-0.4037</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.0463</v>
+        <v>-0.4055</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.3326</v>
+        <v>-0.4891</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.3317</v>
+        <v>-0.3434</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.3319</v>
+        <v>-0.3436</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.3321</v>
+        <v>-0.3438</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.3324</v>
+        <v>-0.344</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7035.3669</v>
+        <v>6048.7466</v>
       </c>
       <c r="D8" s="1">
-        <v>7072.4396</v>
+        <v>6085.8193</v>
       </c>
       <c r="E8" s="1">
-        <v>7065.3447</v>
+        <v>6078.7244</v>
       </c>
       <c r="F8" s="1">
-        <v>7058.1346</v>
+        <v>6071.5143</v>
       </c>
       <c r="G8" s="1">
-        <v>7050.8079</v>
+        <v>6064.1876</v>
       </c>
     </row>
   </sheetData>
